--- a/biology/Botanique/Crypteroniaceae/Crypteroniaceae.xlsx
+++ b/biology/Botanique/Crypteroniaceae/Crypteroniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Crypteroniaceae regroupe des plantes dicotylédones ; elle comprend une dizaine d'espèces réparties en 3 genres.
 Ce sont des arbres ou des arbustes, certains adaptés aux zones humides, des régions tropicales d'Asie.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type   Crypteronia, composé du grec κρυπτώ / krypto, caché, έρως / eros, amour, et du suffixe latin -acea, « de la nature de », en référence aux petites fleurs de la plante.
 </t>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (1 juin 2010)[1] et DELTA Angio           (1 juin 2010)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (1 juin 2010) et DELTA Angio           (1 juin 2010) :
 genre Axinandra (en)
 genre Crypteronia (en)
 genre Dactylocladus (pt)</t>
@@ -576,9 +592,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (1 juin 2010)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (1 juin 2010) :
 genre Axinandra
 Axinandra coriacea
 Axinandra zeylanica
